--- a/TCO-trucking.xlsx
+++ b/TCO-trucking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbiederbeck/Coding/MyGithub/tco-trucks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B033F1F-3892-1342-AEFC-505E0EE4580B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA6FC4-1713-D442-83DD-4482CB7E0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Energy costs det" sheetId="3" r:id="rId4"/>
     <sheet name="Energy cost" sheetId="6" r:id="rId5"/>
     <sheet name="Infrastructure" sheetId="2" r:id="rId6"/>
+    <sheet name="Toll" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="166">
   <si>
     <t>Vehicle</t>
   </si>
@@ -425,43 +426,13 @@
     <t>Infrastructure charge</t>
   </si>
   <si>
-    <t>€-cent 17.40/km</t>
-  </si>
-  <si>
     <t>External cost charge for noise and air pollution</t>
-  </si>
-  <si>
-    <t>€-cent 1.30/km</t>
   </si>
   <si>
     <t>External cost charge for C02</t>
   </si>
   <si>
-    <t>€-cent 8.00/km</t>
-  </si>
-  <si>
-    <t>€-cent 18.70/km</t>
-  </si>
-  <si>
-    <t>€-cent 26.70/km</t>
-  </si>
-  <si>
-    <t>€-cent 4.35/km</t>
-  </si>
-  <si>
     <t>External cost charge for air and noise pollution</t>
-  </si>
-  <si>
-    <t>€-cent 0.20/km</t>
-  </si>
-  <si>
-    <t>€-cent 4.55/km</t>
-  </si>
-  <si>
-    <t>€-cent 12.18/km</t>
-  </si>
-  <si>
-    <t>€-cent 21.48/km</t>
   </si>
   <si>
     <t>Sources: T&amp;E calculations based on European Commission (2013), Kühnel et al. (2018), BFStrMG (2020) and Council of the European Union (2020).</t>
@@ -564,13 +535,19 @@
     <t>Infrastructure</t>
   </si>
   <si>
-    <t>Fuel</t>
-  </si>
-  <si>
     <t>CO2 price</t>
   </si>
   <si>
     <t>Subsidy</t>
+  </si>
+  <si>
+    <t>Cost [€/km]</t>
+  </si>
+  <si>
+    <t>Toll</t>
+  </si>
+  <si>
+    <t>Fuel/Electricity</t>
   </si>
 </sst>
 </file>
@@ -6771,6 +6748,678 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="774700" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="page82image64518784">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30798121-4D48-A149-A2EF-32498E01ED74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="787400" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="page82image64511296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE233A57-ADFF-9C43-8C8F-F2E0D42B9622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="813002" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="page82image64988544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64F47EA-7D03-6547-BCFD-554A9F6C3087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="813002" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762202" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="page82image64986432">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A4CBF8-AEA7-2E4B-B98E-1D4A83EA6176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="762202" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="724101" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="page82image64978944">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975D55DC-B6A3-9F4B-801F-BD7B84C60100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="724101" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768450" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="page82image64991616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFF5A06-3FBD-5F4A-8ED9-F9FB684989D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="768450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="774700" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="page82image64518784">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2353A8-40CA-1F4E-8C04-E0D9FD420C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="787038" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="page82image64511296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA3AA9F-4314-E844-9E36-3EDAAFFE67D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="787038" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="812640" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="page82image64988544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC6196A-2A27-DD46-BC9F-F52E5AAD4B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="812640" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761840" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="page82image64986432">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59BDEAF-E16B-9240-9823-D8DC1BC9DBA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="761840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="723738" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="page82image64978944">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5F99D9-E020-8346-84A2-826550C032C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="723738" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768088" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="page82image64991616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F7FDFF-4ABF-2942-9790-56DFD16AC8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24587200"/>
+          <a:ext cx="768088" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8819,6 +9468,830 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="774700" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="page82image64518784">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A07C5DC-EBA9-264B-9BB8-D90576F1A927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="787400" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="page82image64511296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B20259-C1E5-C643-BFBE-40A5B3E97BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1919111" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="page82image64992192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D52695-A744-A446-9B93-DDDCBA4DE4EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="1919111" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="813002" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="page82image64988544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E75837-5C92-8D46-89FC-ED030D002987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="813002" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762202" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="page82image64986432">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC87DD8-FE70-9142-B68D-E60182AB897F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="762202" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="724101" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="page82image64978944">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84429647-193F-984E-9B3E-27B321FE12F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="724101" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768450" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="page82image64991616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90114DBD-64B8-8144-9280-341BB5202EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="768450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="page82image64518784">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB3472F-51CD-2240-848B-5BAAE7F2C63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787038</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="page82image64511296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEAD118-791C-4945-B310-41246482B02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="787038" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1088454</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="page82image64992192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634C2D5B-F022-5649-9E79-83880BC76061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="1913954" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="page82image64988544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B574E7F8-4F9B-2C46-8C2D-6DF30E392FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="812640" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="page82image64986432">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667A6A41-EE60-E240-A025-82C78FED0F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="761840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723738</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="page82image64978944">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B059E53-A5B7-254B-BA78-6FC66F0D6454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="723738" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768088</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="page82image64991616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92385708-1EC3-8541-8E11-8B81F45B428A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="768088" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED818E0F-38C9-AE4A-98AF-58AD8C2AA077}" name="Table2" displayName="Table2" ref="A1:F31" totalsRowShown="0">
   <autoFilter ref="A1:F31" xr:uid="{ED818E0F-38C9-AE4A-98AF-58AD8C2AA077}"/>
@@ -8835,8 +10308,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}" name="Table1" displayName="Table1" ref="A1:F161" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F161" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}" name="Table1" displayName="Table1" ref="A1:F181" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F181" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ABD52678-A454-9D4A-B67B-675FF8E97DFF}" name="Vehicle" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{46DD946D-9D12-2A41-A839-3DF7CBDB6F00}" name="Cost type" dataDxfId="4"/>
@@ -9178,24 +10651,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>29.86</v>
@@ -9204,10 +10677,10 @@
         <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F2">
         <v>40</v>
@@ -9224,10 +10697,10 @@
         <v>2020</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -9244,10 +10717,10 @@
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -9264,10 +10737,10 @@
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -9284,10 +10757,10 @@
         <v>2020</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -9295,7 +10768,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <v>2.96</v>
@@ -9304,10 +10777,10 @@
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -9315,7 +10788,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B8">
         <v>26.67</v>
@@ -9324,10 +10797,10 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -9344,10 +10817,10 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -9364,10 +10837,10 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -9384,10 +10857,10 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -9404,10 +10877,10 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F12">
         <v>40</v>
@@ -9415,7 +10888,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <v>2.64</v>
@@ -9424,10 +10897,10 @@
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F13">
         <v>40</v>
@@ -9435,7 +10908,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>23.47</v>
@@ -9444,10 +10917,10 @@
         <v>2030</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F14">
         <v>40</v>
@@ -9464,10 +10937,10 @@
         <v>2030</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F15">
         <v>40</v>
@@ -9484,10 +10957,10 @@
         <v>2030</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F16">
         <v>40</v>
@@ -9504,10 +10977,10 @@
         <v>2030</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F17">
         <v>40</v>
@@ -9524,10 +10997,10 @@
         <v>2030</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F18">
         <v>40</v>
@@ -9536,7 +11009,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>2.33</v>
@@ -9545,10 +11018,10 @@
         <v>2030</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F19">
         <v>40</v>
@@ -9556,7 +11029,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>23.47</v>
@@ -9565,10 +11038,10 @@
         <v>2040</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F20">
         <v>40</v>
@@ -9586,10 +11059,10 @@
         <v>2040</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F21">
         <v>40</v>
@@ -9606,10 +11079,10 @@
         <v>2040</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F22">
         <v>40</v>
@@ -9627,10 +11100,10 @@
         <v>2040</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F23">
         <v>40</v>
@@ -9647,10 +11120,10 @@
         <v>2040</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F24">
         <v>40</v>
@@ -9659,7 +11132,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B25">
         <v>2.33</v>
@@ -9668,10 +11141,10 @@
         <v>2040</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F25">
         <v>40</v>
@@ -9679,7 +11152,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B26">
         <v>23.47</v>
@@ -9688,10 +11161,10 @@
         <v>2050</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F26">
         <v>40</v>
@@ -9708,10 +11181,10 @@
         <v>2050</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F27">
         <v>40</v>
@@ -9729,10 +11202,10 @@
         <v>2050</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F28">
         <v>40</v>
@@ -9749,10 +11222,10 @@
         <v>2050</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F29">
         <v>40</v>
@@ -9769,10 +11242,10 @@
         <v>2050</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F30">
         <v>40</v>
@@ -9780,7 +11253,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B31">
         <v>2.33</v>
@@ -9789,10 +11262,10 @@
         <v>2050</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F31">
         <v>40</v>
@@ -9847,19 +11320,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9873,10 +11346,10 @@
         <v>2020</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F2" s="8">
         <v>40</v>
@@ -9893,10 +11366,10 @@
         <v>2025</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F3" s="9">
         <v>40</v>
@@ -9913,16 +11386,16 @@
         <v>2030</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F4" s="8">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9936,10 +11409,10 @@
         <v>2040</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F5" s="9">
         <v>40</v>
@@ -9956,10 +11429,10 @@
         <v>2050</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F6" s="10">
         <v>40</v>
@@ -9976,10 +11449,10 @@
         <v>2020</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F7" s="8">
         <v>40</v>
@@ -9996,10 +11469,10 @@
         <v>2025</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F8" s="9">
         <v>40</v>
@@ -10016,10 +11489,10 @@
         <v>2030</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F9" s="8">
         <v>40</v>
@@ -10036,10 +11509,10 @@
         <v>2040</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F10" s="9">
         <v>40</v>
@@ -10056,10 +11529,10 @@
         <v>2050</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F11" s="10">
         <v>40</v>
@@ -10074,10 +11547,10 @@
         <v>2020</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F12" s="8">
         <v>40</v>
@@ -10092,10 +11565,10 @@
         <v>2025</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F13" s="9">
         <v>40</v>
@@ -10110,10 +11583,10 @@
         <v>2030</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F14" s="8">
         <v>40</v>
@@ -10128,10 +11601,10 @@
         <v>2040</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F15" s="9">
         <v>40</v>
@@ -10146,10 +11619,10 @@
         <v>2050</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F16" s="10">
         <v>40</v>
@@ -10162,10 +11635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7303BA-D3FD-4345-991C-4DA0FD69442E}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10179,26 +11652,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -10219,10 +11692,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -10239,7 +11712,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -10282,7 +11755,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -10342,7 +11815,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
@@ -10402,7 +11875,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>1</v>
@@ -10462,7 +11935,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>1</v>
@@ -10522,7 +11995,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>1</v>
@@ -10562,7 +12035,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>1</v>
@@ -10582,7 +12055,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>1</v>
@@ -10602,7 +12075,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>1</v>
@@ -10619,7 +12092,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -10639,10 +12112,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
@@ -10659,7 +12132,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
@@ -10702,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>1</v>
@@ -10762,7 +12235,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>1</v>
@@ -10822,7 +12295,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2" t="b">
         <v>1</v>
@@ -10882,7 +12355,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C36" s="2" t="b">
         <v>1</v>
@@ -10942,7 +12415,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>1</v>
@@ -10982,7 +12455,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>1</v>
@@ -11002,7 +12475,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2" t="b">
         <v>1</v>
@@ -11022,7 +12495,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2" t="b">
         <v>1</v>
@@ -11039,7 +12512,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -11059,10 +12532,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="b">
         <v>1</v>
@@ -11079,7 +12552,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2</v>
@@ -11122,7 +12595,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C48" s="2" t="b">
         <v>1</v>
@@ -11182,7 +12655,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="b">
         <v>1</v>
@@ -11242,7 +12715,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C54" s="2" t="b">
         <v>1</v>
@@ -11302,7 +12775,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C57" s="2" t="b">
         <v>1</v>
@@ -11362,7 +12835,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C60" s="2" t="b">
         <v>1</v>
@@ -11402,7 +12875,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C62" s="2" t="b">
         <v>1</v>
@@ -11422,7 +12895,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C63" s="2" t="b">
         <v>1</v>
@@ -11442,7 +12915,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C64" s="2" t="b">
         <v>1</v>
@@ -11459,7 +12932,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
@@ -11479,10 +12952,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="b">
         <v>1</v>
@@ -11499,7 +12972,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
@@ -11542,7 +13015,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="b">
         <v>1</v>
@@ -11602,7 +13075,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="b">
         <v>1</v>
@@ -11662,7 +13135,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C75" s="2" t="b">
         <v>1</v>
@@ -11722,7 +13195,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C78" s="2" t="b">
         <v>1</v>
@@ -11782,7 +13255,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C81" s="2" t="b">
         <v>1</v>
@@ -11822,7 +13295,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C83" s="2" t="b">
         <v>1</v>
@@ -11842,7 +13315,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C84" s="2" t="b">
         <v>1</v>
@@ -11862,7 +13335,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C85" s="2" t="b">
         <v>1</v>
@@ -11879,7 +13352,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1</v>
@@ -11899,10 +13372,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2" t="b">
         <v>1</v>
@@ -11919,7 +13392,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
@@ -11962,7 +13435,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="b">
         <v>1</v>
@@ -12022,7 +13495,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="b">
         <v>1</v>
@@ -12082,7 +13555,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="b">
         <v>1</v>
@@ -12142,7 +13615,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2" t="b">
         <v>1</v>
@@ -12202,7 +13675,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="b">
         <v>1</v>
@@ -12242,7 +13715,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C104" s="2" t="b">
         <v>1</v>
@@ -12262,7 +13735,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C105" s="2" t="b">
         <v>1</v>
@@ -12282,7 +13755,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C106" s="2" t="b">
         <v>1</v>
@@ -12299,10 +13772,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C107" s="2" t="b">
         <v>1</v>
@@ -12319,10 +13792,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C108" s="2" t="b">
         <v>1</v>
@@ -12339,10 +13812,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C109" s="2" t="b">
         <v>1</v>
@@ -12359,10 +13832,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C110" s="2" t="b">
         <v>1</v>
@@ -12379,10 +13852,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C111" s="2" t="b">
         <v>1</v>
@@ -12402,7 +13875,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C112" s="2" t="b">
         <v>1</v>
@@ -12422,7 +13895,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C113" s="2" t="b">
         <v>1</v>
@@ -12442,7 +13915,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C114" s="2" t="b">
         <v>1</v>
@@ -12462,7 +13935,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C115" s="2" t="b">
         <v>1</v>
@@ -12482,7 +13955,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C116" s="2" t="b">
         <v>1</v>
@@ -12502,7 +13975,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C117" s="2" t="b">
         <v>1</v>
@@ -12522,7 +13995,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C118" s="2" t="b">
         <v>1</v>
@@ -12542,7 +14015,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C119" s="2" t="b">
         <v>1</v>
@@ -12562,7 +14035,7 @@
         <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="b">
         <v>1</v>
@@ -12582,7 +14055,7 @@
         <v>4</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C121" s="2" t="b">
         <v>1</v>
@@ -12602,7 +14075,7 @@
         <v>5</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C122" s="2" t="b">
         <v>1</v>
@@ -12622,7 +14095,7 @@
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2" t="b">
         <v>1</v>
@@ -12642,7 +14115,7 @@
         <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C124" s="2" t="b">
         <v>1</v>
@@ -12662,7 +14135,7 @@
         <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C125" s="2" t="b">
         <v>1</v>
@@ -12682,7 +14155,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C126" s="2" t="b">
         <v>1</v>
@@ -12699,10 +14172,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C127" s="2" t="b">
         <v>1</v>
@@ -12719,10 +14192,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C128" s="2" t="b">
         <v>1</v>
@@ -12739,10 +14212,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C129" s="2" t="b">
         <v>1</v>
@@ -12759,10 +14232,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C130" s="2" t="b">
         <v>1</v>
@@ -12779,10 +14252,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C131" s="2" t="b">
         <v>1</v>
@@ -12802,7 +14275,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C132" s="2" t="b">
         <v>1</v>
@@ -12822,7 +14295,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C133" s="2" t="b">
         <v>1</v>
@@ -12842,7 +14315,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C134" s="2" t="b">
         <v>1</v>
@@ -12862,7 +14335,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C135" s="2" t="b">
         <v>1</v>
@@ -12882,7 +14355,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C136" s="2" t="b">
         <v>1</v>
@@ -12902,7 +14375,7 @@
         <v>4</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C137" s="2" t="b">
         <v>1</v>
@@ -12922,7 +14395,7 @@
         <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C138" s="2" t="b">
         <v>1</v>
@@ -12942,7 +14415,7 @@
         <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2" t="b">
         <v>1</v>
@@ -12962,7 +14435,7 @@
         <v>4</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C140" s="2" t="b">
         <v>1</v>
@@ -12982,7 +14455,7 @@
         <v>4</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C141" s="2" t="b">
         <v>1</v>
@@ -13002,7 +14475,7 @@
         <v>5</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C142" s="2" t="b">
         <v>1</v>
@@ -13022,7 +14495,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2" t="b">
         <v>1</v>
@@ -13042,7 +14515,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C144" s="2" t="b">
         <v>1</v>
@@ -13062,7 +14535,7 @@
         <v>5</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C145" s="2" t="b">
         <v>1</v>
@@ -13082,7 +14555,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C146" s="2" t="b">
         <v>1</v>
@@ -13102,7 +14575,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C147" s="2" t="b">
         <v>0</v>
@@ -13122,7 +14595,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C148" s="2" t="b">
         <v>0</v>
@@ -13142,7 +14615,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C149" s="2" t="b">
         <v>0</v>
@@ -13162,7 +14635,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C150" s="2" t="b">
         <v>0</v>
@@ -13182,7 +14655,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C151" s="2" t="b">
         <v>0</v>
@@ -13202,7 +14675,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C152" s="2" t="b">
         <v>0</v>
@@ -13222,7 +14695,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C153" s="2" t="b">
         <v>0</v>
@@ -13242,7 +14715,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C154" s="2" t="b">
         <v>0</v>
@@ -13262,7 +14735,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C155" s="2" t="b">
         <v>0</v>
@@ -13282,7 +14755,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C156" s="2" t="b">
         <v>0</v>
@@ -13302,7 +14775,7 @@
         <v>5</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C157" s="2" t="b">
         <v>0</v>
@@ -13322,7 +14795,7 @@
         <v>5</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C158" s="2" t="b">
         <v>0</v>
@@ -13342,7 +14815,7 @@
         <v>5</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C159" s="2" t="b">
         <v>0</v>
@@ -13362,7 +14835,7 @@
         <v>5</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C160" s="2" t="b">
         <v>0</v>
@@ -13382,7 +14855,7 @@
         <v>5</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C161" s="2" t="b">
         <v>0</v>
@@ -13394,6 +14867,406 @@
         <v>2050</v>
       </c>
       <c r="F161" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F162" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F163" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F164" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>2040</v>
+      </c>
+      <c r="F165" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2">
+        <v>2050</v>
+      </c>
+      <c r="F166" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F167" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F168" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="4">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F169" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>2040</v>
+      </c>
+      <c r="F170" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>2050</v>
+      </c>
+      <c r="F171" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" s="4">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F172" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" s="4">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F173" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F174" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2040</v>
+      </c>
+      <c r="F175" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>2050</v>
+      </c>
+      <c r="F176" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F177" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F178" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" s="4">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F179" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" s="4">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2">
+        <v>2040</v>
+      </c>
+      <c r="F180" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D181" s="4">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2050</v>
+      </c>
+      <c r="F181" s="2">
         <v>40</v>
       </c>
     </row>
@@ -13411,7 +15284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ADCF57-F81B-7244-ADFC-8F345755001E}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="169" workbookViewId="0">
+    <sheetView zoomScale="169" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -13432,7 +15305,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13527,7 +15400,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -13647,7 +15520,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -14540,7 +16413,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -14565,7 +16438,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14578,21 +16451,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2">
@@ -14602,12 +16475,12 @@
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3">
@@ -14617,12 +16490,12 @@
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4">
@@ -14632,12 +16505,12 @@
         <v>2030</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
@@ -14647,12 +16520,12 @@
         <v>2040</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
@@ -14662,7 +16535,7 @@
         <v>2050</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14670,7 +16543,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
         <v>0.26069999999999999</v>
@@ -14679,7 +16552,7 @@
         <v>2020</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14687,7 +16560,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2">
         <v>0.2465</v>
@@ -14696,7 +16569,7 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14704,7 +16577,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2">
         <v>0.24079999999999999</v>
@@ -14713,7 +16586,7 @@
         <v>2030</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14721,7 +16594,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2">
         <v>0.22989999999999999</v>
@@ -14730,7 +16603,7 @@
         <v>2040</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14738,7 +16611,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2">
         <v>0.21960000000000002</v>
@@ -14747,7 +16620,7 @@
         <v>2050</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14755,7 +16628,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2">
         <v>0.26069999999999999</v>
@@ -14764,7 +16637,7 @@
         <v>2020</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14772,7 +16645,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2">
         <v>0.2465</v>
@@ -14781,7 +16654,7 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14789,7 +16662,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2">
         <v>0.24079999999999999</v>
@@ -14798,7 +16671,7 @@
         <v>2030</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14806,7 +16679,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2">
         <v>0.22989999999999999</v>
@@ -14815,7 +16688,7 @@
         <v>2040</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14823,7 +16696,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2">
         <v>0.21960000000000002</v>
@@ -14832,7 +16705,7 @@
         <v>2050</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -14840,7 +16713,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C17" s="12">
         <v>6.8593139999999995</v>
@@ -14849,7 +16722,7 @@
         <v>2020</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14857,7 +16730,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C18" s="12">
         <v>6.0427289999999996</v>
@@ -14866,7 +16739,7 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14874,7 +16747,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C19" s="12">
         <v>5.302802999999999</v>
@@ -14883,7 +16756,7 @@
         <v>2030</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14891,7 +16764,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C20" s="12">
         <v>4.4428890000000001</v>
@@ -14900,7 +16773,7 @@
         <v>2040</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14908,7 +16781,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C21" s="12">
         <v>3.7429590000000004</v>
@@ -14917,7 +16790,7 @@
         <v>2050</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -15017,8 +16890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A029443-8E80-DE44-B0E0-9A50E775ACD5}">
   <dimension ref="A2:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15580,88 +17453,93 @@
       <c r="B60" t="s">
         <v>127</v>
       </c>
-      <c r="C60" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" t="s">
-        <v>128</v>
+      <c r="C60">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D60">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E60">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <v>1.3</v>
+      </c>
+      <c r="D61">
+        <v>1.3</v>
+      </c>
+      <c r="E61">
+        <v>1.3</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="C63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" t="s">
-        <v>134</v>
+      <c r="C63">
+        <f>SUM(C60:C61)</f>
+        <v>18.7</v>
+      </c>
+      <c r="D63">
+        <f>SUM(D60:D61)</f>
+        <v>18.7</v>
+      </c>
+      <c r="E63">
+        <f>SUM(E60:E61)</f>
+        <v>18.7</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>3</v>
       </c>
-      <c r="E64" t="s">
-        <v>135</v>
+      <c r="E64">
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="B65" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="D67" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" t="s">
-        <v>138</v>
+      <c r="D67">
+        <f>SUM(D64:D65)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <f>SUM(E64:E65)</f>
+        <v>4.55</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -15671,35 +17549,35 @@
       <c r="B68" t="s">
         <v>127</v>
       </c>
-      <c r="E68" t="s">
-        <v>135</v>
+      <c r="E68">
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="B69" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="C69">
+        <v>0.2</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="B70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" t="s">
-        <v>138</v>
+      <c r="C71">
+        <v>0.2</v>
+      </c>
+      <c r="D71">
+        <v>4.55</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -15709,35 +17587,35 @@
       <c r="B72" t="s">
         <v>127</v>
       </c>
-      <c r="E72" t="s">
-        <v>135</v>
+      <c r="E72">
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="B73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="B74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" t="s">
-        <v>138</v>
+      <c r="C75">
+        <v>0.2</v>
+      </c>
+      <c r="D75">
+        <v>4.55</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -15747,53 +17625,53 @@
       <c r="B76" t="s">
         <v>127</v>
       </c>
-      <c r="C76" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" t="s">
-        <v>128</v>
+      <c r="C76">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D76">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E76">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" t="s">
         <v>130</v>
       </c>
-      <c r="D77" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" t="s">
-        <v>130</v>
+      <c r="C77">
+        <v>1.3</v>
+      </c>
+      <c r="D77">
+        <v>1.3</v>
+      </c>
+      <c r="E77">
+        <v>1.3</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="B78" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="C79" t="s">
-        <v>133</v>
-      </c>
-      <c r="D79" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" t="s">
-        <v>134</v>
+      <c r="C79">
+        <v>18.7</v>
+      </c>
+      <c r="D79">
+        <v>26.7</v>
+      </c>
+      <c r="E79">
+        <v>26.7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -15803,63 +17681,313 @@
       <c r="B80" t="s">
         <v>127</v>
       </c>
-      <c r="C80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80" t="s">
-        <v>139</v>
+      <c r="C80">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D80">
+        <v>12.18</v>
+      </c>
+      <c r="E80">
+        <v>12.18</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="B81" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" t="s">
         <v>130</v>
       </c>
-      <c r="D81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" t="s">
-        <v>130</v>
+      <c r="C81">
+        <v>1.3</v>
+      </c>
+      <c r="D81">
+        <v>1.3</v>
+      </c>
+      <c r="E81">
+        <v>1.3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="B82" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" t="s">
         <v>11</v>
       </c>
-      <c r="C83" t="s">
-        <v>133</v>
-      </c>
-      <c r="D83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" t="s">
-        <v>140</v>
+      <c r="C83">
+        <v>18.7</v>
+      </c>
+      <c r="D83">
+        <v>21.48</v>
+      </c>
+      <c r="E83">
+        <v>21.48</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123BEABA-04A9-AC4F-AFD3-1598945FBDEC}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>0.187</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>0.187</v>
+      </c>
+      <c r="C3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4">
+        <v>0.187</v>
+      </c>
+      <c r="C4">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>0.187</v>
+      </c>
+      <c r="C5">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>0.187</v>
+      </c>
+      <c r="C6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C13">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C18">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="C21">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>

--- a/TCO-trucking.xlsx
+++ b/TCO-trucking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbiederbeck/Coding/MyGithub/tco-trucks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA6FC4-1713-D442-83DD-4482CB7E0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B58615-1BA1-EF49-9D71-E2EEB6DC9969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="166">
   <si>
     <t>Vehicle</t>
   </si>
@@ -10308,8 +10308,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}" name="Table1" displayName="Table1" ref="A1:F181" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F181" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}" name="Table1" displayName="Table1" ref="A1:F186" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F186" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ABD52678-A454-9D4A-B67B-675FF8E97DFF}" name="Vehicle" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{46DD946D-9D12-2A41-A839-3DF7CBDB6F00}" name="Cost type" dataDxfId="4"/>
@@ -11635,10 +11635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7303BA-D3FD-4345-991C-4DA0FD69442E}">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107:B126"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15267,6 +15267,106 @@
         <v>2050</v>
       </c>
       <c r="F181" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F182" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" s="4">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F183" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" s="4">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F184" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" s="4">
+        <v>0</v>
+      </c>
+      <c r="E185" s="2">
+        <v>2040</v>
+      </c>
+      <c r="F185" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2">
+        <v>2050</v>
+      </c>
+      <c r="F186" s="2">
         <v>40</v>
       </c>
     </row>
@@ -17748,10 +17848,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123BEABA-04A9-AC4F-AFD3-1598945FBDEC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17759,7 +17859,7 @@
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17770,7 +17870,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
@@ -17781,7 +17881,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -17792,7 +17892,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>132</v>
       </c>
@@ -17803,7 +17903,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
@@ -17814,7 +17914,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
@@ -17825,7 +17925,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -17836,7 +17936,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -17847,7 +17947,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -17858,7 +17958,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -17869,7 +17969,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -17880,7 +17980,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -17891,7 +17991,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -17902,7 +18002,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -17913,7 +18013,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -17924,7 +18024,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -17933,6 +18033,9 @@
       </c>
       <c r="C16">
         <v>2050</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/TCO-trucking.xlsx
+++ b/TCO-trucking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbiederbeck/Coding/MyGithub/tco-trucks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B58615-1BA1-EF49-9D71-E2EEB6DC9969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE4FFD9-DF8B-3549-A8FF-A4D8511742C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy consumption" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Vehicle cost" sheetId="4" r:id="rId3"/>
     <sheet name="Energy costs det" sheetId="3" r:id="rId4"/>
     <sheet name="Energy cost" sheetId="6" r:id="rId5"/>
-    <sheet name="Infrastructure" sheetId="2" r:id="rId6"/>
-    <sheet name="Toll" sheetId="7" r:id="rId7"/>
+    <sheet name="EU electricity cost" sheetId="8" r:id="rId6"/>
+    <sheet name="Infrastructure" sheetId="2" r:id="rId7"/>
+    <sheet name="Toll" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="230">
   <si>
     <t>Vehicle</t>
   </si>
@@ -549,16 +550,210 @@
   <si>
     <t>Fuel/Electricity</t>
   </si>
+  <si>
+    <t>Data extracted on 19/10/2021 23:02:53 from [ESTAT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset: </t>
+  </si>
+  <si>
+    <t>Electricity prices for non-household consumers - bi-annual data (from 2007 onwards) [NRG_PC_205__custom_1376243]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last updated: </t>
+  </si>
+  <si>
+    <t>Time frequency</t>
+  </si>
+  <si>
+    <t>Half-yearly, semesterly</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Electrical energy</t>
+  </si>
+  <si>
+    <t>Band IC : 500 MWh &lt; Consumption &lt; 2 000 MWh</t>
+  </si>
+  <si>
+    <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Kilowatt-hour</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Excluding VAT and other recoverable taxes and levies</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>2020-S1</t>
+  </si>
+  <si>
+    <t>2020-S2</t>
+  </si>
+  <si>
+    <t>2021-S1</t>
+  </si>
+  <si>
+    <t>GEO (Labels)</t>
+  </si>
+  <si>
+    <t>European Union - 27 countries (from 2020)</t>
+  </si>
+  <si>
+    <t>Euro area (EA11-1999, EA12-2001, EA13-2007, EA15-2008, EA16-2009, EA17-2011, EA18-2014, EA19-2015)</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Germany (until 1990 former territory of the FRG)</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Kosovo (under United Nations Security Council Resolution 1244/99)</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,8 +812,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,8 +854,32 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4669AF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0096DC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -666,11 +907,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB0B0B0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB0B0B0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -687,6 +967,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9073,6 +9396,263 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0A2E58-8575-DD4E-9624-68F858E37213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="8153400"/>
+          <a:ext cx="2463800" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Special value</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>not available</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Available flags:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>definition differs (see metadata)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>estimated</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>provisional</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -9468,7 +10048,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -11637,8 +12217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7303BA-D3FD-4345-991C-4DA0FD69442E}">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:B186"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16987,6 +17567,1152 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F58F53E-65C3-434A-9381-D55C40522989}">
+  <dimension ref="A1:T62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="18">
+        <v>44484.458333333336</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.1255</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21">
+        <v>0.1283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="24">
+        <v>0.1348</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24">
+        <v>0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.1171</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21">
+        <v>0.12180000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="24">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24">
+        <v>8.43E-2</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="24">
+        <v>9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="21">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21">
+        <v>8.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="24">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24">
+        <v>7.9699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21">
+        <v>0.18129999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="24">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="24">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24">
+        <v>9.5699999999999993E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.1326</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21">
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0.1076</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="24">
+        <v>0.11840000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.1076</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21">
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="24">
+        <v>0.1057</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.1043</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21">
+        <v>0.1023</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="24">
+        <v>0.15840000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21">
+        <v>0.1515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24">
+        <v>0.1055</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24">
+        <v>0.1012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="21">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21">
+        <v>0.1026</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="24">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24">
+        <v>9.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="21">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="24">
+        <v>0.1343</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24">
+        <v>0.13420000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0.1067</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21">
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="24">
+        <v>0.1191</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="24">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="24">
+        <v>0.12280000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="21">
+        <v>0.1086</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21">
+        <v>0.1077</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0.1125</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="24">
+        <v>0.1114</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="24">
+        <v>0.1066</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="21">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21">
+        <v>0.1019</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21">
+        <v>9.9199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="24">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="21">
+        <v>0.1321</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21">
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="24">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="21">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="21">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="24">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="24">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="21">
+        <v>0.1021</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="24">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="24">
+        <v>8.1100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="21">
+        <v>0.1648</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="24">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="24">
+        <v>6.59E-2</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="24">
+        <v>8.6699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="21">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="21">
+        <v>8.14E-2</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21">
+        <v>7.9500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="24">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="24">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="21">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21">
+        <v>7.4700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="24">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="24">
+        <v>6.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="21">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21">
+        <v>6.3299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="24">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="24">
+        <v>5.9499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="21">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="21">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A029443-8E80-DE44-B0E0-9A50E775ACD5}">
   <dimension ref="A2:H85"/>
   <sheetViews>
@@ -17846,7 +19572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123BEABA-04A9-AC4F-AFD3-1598945FBDEC}">
   <dimension ref="A1:L21"/>
   <sheetViews>

--- a/TCO-trucking.xlsx
+++ b/TCO-trucking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbiederbeck/Coding/MyGithub/tco-trucks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE4FFD9-DF8B-3549-A8FF-A4D8511742C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D021D-4016-9242-9218-0FEA4350D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="5" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy consumption" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="220">
   <si>
     <t>Vehicle</t>
   </si>
@@ -557,54 +557,24 @@
     <t xml:space="preserve">Dataset: </t>
   </si>
   <si>
-    <t>Electricity prices for non-household consumers - bi-annual data (from 2007 onwards) [NRG_PC_205__custom_1376243]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Last updated: </t>
   </si>
   <si>
     <t>Time frequency</t>
   </si>
   <si>
-    <t>Half-yearly, semesterly</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
-    <t>Electrical energy</t>
-  </si>
-  <si>
-    <t>Band IC : 500 MWh &lt; Consumption &lt; 2 000 MWh</t>
-  </si>
-  <si>
     <t>Unit of measure</t>
   </si>
   <si>
-    <t>Kilowatt-hour</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
-    <t>Excluding VAT and other recoverable taxes and levies</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>Euro</t>
-  </si>
-  <si>
-    <t>2020-S1</t>
-  </si>
-  <si>
-    <t>2020-S2</t>
-  </si>
-  <si>
-    <t>2021-S1</t>
-  </si>
-  <si>
     <t>GEO (Labels)</t>
   </si>
   <si>
@@ -626,9 +596,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -665,9 +632,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
@@ -698,9 +662,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -719,9 +680,6 @@
     <t>North Macedonia</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
@@ -741,6 +699,18 @@
   </si>
   <si>
     <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Electricity price 2019 S-2</t>
+  </si>
+  <si>
+    <t>Diesel price</t>
+  </si>
+  <si>
+    <t>C02-price (2021)</t>
   </si>
 </sst>
 </file>
@@ -750,8 +720,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.##########"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -831,7 +801,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="9"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -856,12 +826,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4669AF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0096DC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -874,12 +838,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4669AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF6F6F6"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -908,32 +876,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB0B0B0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB0B0B0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB0B0B0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB0B0B0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB0B0B0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB0B0B0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB0B0B0"/>
       </left>
@@ -946,11 +888,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -965,9 +918,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -975,47 +925,103 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0.##########"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFB0B0B0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFB0B0B0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFB0B0B0"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9398,16 +9404,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220536</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207836</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>197220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9422,8 +9428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="8153400"/>
-          <a:ext cx="2463800" cy="1384300"/>
+          <a:off x="5098949" y="7894025"/>
+          <a:ext cx="2466824" cy="1374624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10888,15 +10894,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}" name="Table1" displayName="Table1" ref="A1:F186" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}" name="Table1" displayName="Table1" ref="A1:F186" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F186" xr:uid="{C15C5365-711D-2D49-8D19-020CD8514C11}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABD52678-A454-9D4A-B67B-675FF8E97DFF}" name="Vehicle" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{46DD946D-9D12-2A41-A839-3DF7CBDB6F00}" name="Cost type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4F6E6A48-AFC7-2C42-9F31-A89255A2002A}" name="Recurring annual cost" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{16A06C43-D1F7-AF42-8189-41DE573504C7}" name="Cost [€]" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{58ABED6E-487B-9444-B023-9E69871C8F4E}" name="Year" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0F0317CA-4FEC-7249-AC3B-0942F59E2D1D}" name="Class" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{ABD52678-A454-9D4A-B67B-675FF8E97DFF}" name="Vehicle" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{46DD946D-9D12-2A41-A839-3DF7CBDB6F00}" name="Cost type" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4F6E6A48-AFC7-2C42-9F31-A89255A2002A}" name="Recurring annual cost" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{16A06C43-D1F7-AF42-8189-41DE573504C7}" name="Cost [€]" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{58ABED6E-487B-9444-B023-9E69871C8F4E}" name="Year" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0F0317CA-4FEC-7249-AC3B-0942F59E2D1D}" name="Class" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B6015F7-7641-7643-AD5C-8A6650D3C231}" name="Table3" displayName="Table3" ref="A12:D54" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A12:D54" xr:uid="{7B6015F7-7641-7643-AD5C-8A6650D3C231}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:D54">
+    <sortCondition ref="A12:A54"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{05E96EAC-DE6A-8C4C-88D6-4B18FED0CF45}" name="GEO (Labels)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D6CD601E-3D12-4946-82CC-2B56546ED387}" name="Electricity price 2019 S-2" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{E798CB6A-3998-874C-AA71-1D6155BB7054}" name="Diesel price"/>
+    <tableColumn id="4" xr3:uid="{C3211B7B-F5AE-1740-A2E9-B0F863213B10}" name="C02-price (2021)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16108,13 +16130,13 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
@@ -17568,1147 +17590,738 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F58F53E-65C3-434A-9381-D55C40522989}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="18">
-        <v>44484.458333333336</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15" t="s">
-        <v>173</v>
-      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="17" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
-        <v>178</v>
-      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.10879999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="21">
+        <v>6.9800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="17">
+        <v>8.6800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15" t="s">
+      <c r="B19" s="21">
+        <v>7.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="19" t="s">
+      <c r="B20" s="17">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="D20">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="17">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.12870000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="20">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="17">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="D24">
+        <v>72.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="21">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.1608</v>
+      </c>
+      <c r="D27">
+        <v>29.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.1084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="21">
+        <v>9.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="17">
+        <v>5.8099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.1328</v>
+      </c>
+      <c r="D31">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.16159999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="17">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0.107</v>
+      </c>
+      <c r="D34">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="20">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D35">
+        <v>101.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="21">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="17">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="D37">
+        <v>40.119999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.13550000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="21">
+        <v>7.8700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="17">
+        <v>8.7900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="21">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="D41">
+        <v>35.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="21">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="17">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="D43">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="21">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.1159</v>
+      </c>
+      <c r="D45">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="21">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="21">
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="21">
+        <v>0.13170000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="17">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="D49">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.1255</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21">
-        <v>0.12520000000000001</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21">
-        <v>0.1283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="24">
-        <v>0.13469999999999999</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24">
-        <v>0.1348</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24">
-        <v>0.13769999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.1171</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21">
-        <v>0.11849999999999999</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21">
-        <v>0.12180000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="24">
-        <v>8.1600000000000006E-2</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24">
-        <v>8.43E-2</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24">
-        <v>9.6199999999999994E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="21">
-        <v>8.4599999999999995E-2</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21">
-        <v>8.8300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="24">
-        <v>6.1199999999999997E-2</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24">
-        <v>7.9699999999999993E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.17810000000000001</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21">
-        <v>0.18129999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="24">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24">
-        <v>9.5699999999999993E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.1326</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21">
-        <v>0.1512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="24">
-        <v>0.1076</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24">
-        <v>0.10589999999999999</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24">
-        <v>0.11840000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.1076</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21">
-        <v>0.1074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="24">
-        <v>0.1057</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24">
-        <v>9.5399999999999999E-2</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24">
-        <v>0.1042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.1043</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21">
-        <v>0.1023</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21">
-        <v>0.10249999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="24">
-        <v>0.15029999999999999</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24">
-        <v>0.15140000000000001</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="24">
-        <v>0.15840000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.14480000000000001</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21">
-        <v>0.1515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="26">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24">
-        <v>0.1055</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24">
-        <v>0.1012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" s="21">
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21">
-        <v>0.1026</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21">
-        <v>0.1046</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="20" t="s">
+      <c r="B50" s="21">
+        <v>0.1104</v>
+      </c>
+      <c r="D50">
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="24">
-        <v>9.2799999999999994E-2</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24">
-        <v>9.5399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="21">
-        <v>9.9500000000000005E-2</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="24">
-        <v>0.1343</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24">
-        <v>0.13469999999999999</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="24">
-        <v>0.13420000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="20" t="s">
+      <c r="B51" s="21">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="D51">
+        <v>137.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="17">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="21">
-        <v>0.1067</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21">
-        <v>0.10349999999999999</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21">
-        <v>0.1128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B34" s="24">
-        <v>0.1191</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="24">
-        <v>0.12280000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="21">
-        <v>0.1086</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21">
-        <v>0.1077</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21">
-        <v>0.10920000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="24">
-        <v>0.1125</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="24">
-        <v>0.1114</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="24">
-        <v>0.1066</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="21">
-        <v>0.10630000000000001</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="21">
-        <v>0.1019</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21">
-        <v>9.9199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" s="24">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24">
-        <v>9.7600000000000006E-2</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" s="21">
-        <v>0.1321</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21">
-        <v>0.13159999999999999</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21">
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="24">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24">
-        <v>7.5899999999999995E-2</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="24">
-        <v>6.7599999999999993E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="21">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="21">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="24">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="24">
-        <v>7.2099999999999997E-2</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43" s="21">
-        <v>0.1021</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="21">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="24">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="24">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="24">
-        <v>8.1100000000000005E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" s="21">
-        <v>0.1648</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" s="24">
-        <v>8.5699999999999998E-2</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="24">
-        <v>6.59E-2</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="24">
-        <v>8.6699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" s="21">
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="21">
-        <v>7.5200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" s="21">
-        <v>8.14E-2</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21">
-        <v>7.9500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="24">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="24">
-        <v>6.6100000000000006E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B51" s="21">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21">
-        <v>7.4700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" s="24">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="24">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="24">
-        <v>6.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="21">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="21">
-        <v>7.1800000000000003E-2</v>
-      </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21">
-        <v>6.3299999999999995E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" s="24">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="24">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="24">
-        <v>5.9499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="21">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="21">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="21">
-        <v>7.1300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="B54" s="20">
+        <v>0.156</v>
+      </c>
+      <c r="D54">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/TCO-trucking.xlsx
+++ b/TCO-trucking.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbiederbeck/Coding/MyGithub/tco-trucks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbiederbeck/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D021D-4016-9242-9218-0FEA4350D33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED7FFDE-B482-164A-AA1A-B12F31D7375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="5" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{30B432A8-EC79-1641-A4E0-7DAC3B06C665}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energy consumption" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="READ_ME" sheetId="9" r:id="rId1"/>
+    <sheet name="Energy consumption" sheetId="1" r:id="rId2"/>
     <sheet name="Vehicle cost" sheetId="4" r:id="rId3"/>
-    <sheet name="Energy costs det" sheetId="3" r:id="rId4"/>
-    <sheet name="Energy cost" sheetId="6" r:id="rId5"/>
-    <sheet name="EU electricity cost" sheetId="8" r:id="rId6"/>
+    <sheet name="Energy cost" sheetId="6" r:id="rId4"/>
+    <sheet name="EU electricity cost" sheetId="8" r:id="rId5"/>
+    <sheet name="Toll" sheetId="7" r:id="rId6"/>
     <sheet name="Infrastructure" sheetId="2" r:id="rId7"/>
-    <sheet name="Toll" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="190">
   <si>
     <t>Vehicle</t>
   </si>
@@ -67,90 +66,9 @@
     <t>ICEV PtM</t>
   </si>
   <si>
-    <t>Energy costs</t>
-  </si>
-  <si>
-    <t>€-cent/kWh</t>
-  </si>
-  <si>
-    <t>Fossil diesel</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Total incl. taxes and levies</t>
-  </si>
-  <si>
-    <t>Renewable</t>
-  </si>
-  <si>
-    <t>Levelised cost of electricity</t>
-  </si>
-  <si>
-    <t>Transport to Germany</t>
-  </si>
-  <si>
-    <t>Grid connection fees included in LCOE</t>
-  </si>
-  <si>
-    <t>Distribution in Germany</t>
-  </si>
-  <si>
-    <t>Levelised cost of hyd rogen</t>
-  </si>
-  <si>
-    <t>Compression</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>Power-to-liquid from offshore wind in the North Sea</t>
-  </si>
-  <si>
-    <t>Levelised cost of fuel production</t>
-  </si>
-  <si>
-    <t>Power-to-</t>
-  </si>
-  <si>
-    <t>Levelised cost of fuel</t>
-  </si>
-  <si>
-    <t>methane from</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>offshore wind in the North Sea</t>
-  </si>
-  <si>
-    <t>Liquefaction</t>
-  </si>
-  <si>
-    <t>Electricity-based fuel production in North Africa</t>
-  </si>
-  <si>
-    <t>Levelised cost of hydrogen</t>
-  </si>
-  <si>
-    <t>hydrogen from solar PV in North Africa</t>
-  </si>
-  <si>
-    <t>Power-to-liquid</t>
-  </si>
-  <si>
-    <t>from solar PV in</t>
-  </si>
-  <si>
-    <t>North Africa</t>
-  </si>
-  <si>
-    <t>methane from solar PV in North Africa</t>
-  </si>
-  <si>
     <t>High-power charger (1.2 MW)</t>
   </si>
   <si>
@@ -481,37 +399,12 @@
     <t>plug-to-wheel</t>
   </si>
   <si>
-    <t>pantograph-to-wheel</t>
-  </si>
-  <si>
     <t>ICEV_PtM</t>
   </si>
   <si>
-    <t>removed these for</t>
-  </si>
-  <si>
-    <t>Electricity and electricity-based fuel production in Europe</t>
-  </si>
-  <si>
     <t>Renewable electricity (commercial use)</t>
   </si>
   <si>
-    <t>Renewable hydrogen from offshore wind on-site production (PPA)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sources: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SourceSansPro"/>
-      </rPr>
-      <t xml:space="preserve">T&amp;E calculations based on Destatis (2020), Zoll (2020), Agora Verkehrswende et al. (2018), Destatis (2021), U.S. Department of Energy (2019), Pfennig et al. (2017), Runge et al. (2020), Hydrogen Council (2020), EnWG (2020), Mottschall et al. (2019), Bundesnetzagentur (2020), Fasihi et al. (2016) and and Bünger et al. (2016). </t>
-    </r>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -711,6 +604,12 @@
   </si>
   <si>
     <t>C02-price (2021)</t>
+  </si>
+  <si>
+    <t>Transport &amp; Environment (2021). How to decarbonise long-haul trucking in Germany. An analysis of available vehicle technologies and their associsated costs.</t>
+  </si>
+  <si>
+    <t>This work is completley based on the great study by Transport &amp; Environment:</t>
   </si>
 </sst>
 </file>
@@ -723,7 +622,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.##########"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -756,27 +655,6 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="SourceSansPro"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -804,19 +682,21 @@
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -847,32 +727,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -900,10 +760,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -911,46 +772,42 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -3807,16 +3664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>502846</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>78035</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>529305</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>275959</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>78035</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681654</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3831,8 +3688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2339810" y="10079285"/>
-          <a:ext cx="6395256" cy="816429"/>
+          <a:off x="529305" y="6463313"/>
+          <a:ext cx="6370057" cy="1086131"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7757,830 +7614,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774700" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="page82image64518784">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8445500" y="3860800"/>
-          <a:ext cx="774700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="787400" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="page82image64511296">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9232900" y="3860800"/>
-          <a:ext cx="787400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1919111" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="page82image64992192">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11747500" y="3860800"/>
-          <a:ext cx="1919111" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="813002" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="page82image64988544">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13906500" y="3860800"/>
-          <a:ext cx="813002" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="762202" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="page82image64986432">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14389100" y="3860800"/>
-          <a:ext cx="762202" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="724101" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="page82image64978944">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14820900" y="3860800"/>
-          <a:ext cx="724101" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="768450" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="page82image64991616">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15214600" y="3860800"/>
-          <a:ext cx="768450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="page82image64518784">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12700" y="3511627"/>
-          <a:ext cx="774700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>748173</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="page82image64511296">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="800100" y="3511627"/>
-          <a:ext cx="787400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213929</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="page82image64992192">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1600965" y="3511627"/>
-          <a:ext cx="1919111" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>227675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="page82image64988544">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3546360" y="3511627"/>
-          <a:ext cx="813002" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>189575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="page82image64986432">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4385325" y="3511627"/>
-          <a:ext cx="762202" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>113373</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="page82image64978944">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5173490" y="3511627"/>
-          <a:ext cx="724101" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>81523</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="page82image64991616">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5923555" y="3511627"/>
-          <a:ext cx="768450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9400,7 +8433,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9657,6 +8690,830 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="774700" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="page82image64518784">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A07C5DC-EBA9-264B-9BB8-D90576F1A927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="787400" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="page82image64511296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B20259-C1E5-C643-BFBE-40A5B3E97BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1919111" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="page82image64992192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D52695-A744-A446-9B93-DDDCBA4DE4EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="1919111" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="813002" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="page82image64988544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E75837-5C92-8D46-89FC-ED030D002987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="813002" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762202" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="page82image64986432">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC87DD8-FE70-9142-B68D-E60182AB897F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="762202" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="724101" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="page82image64978944">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84429647-193F-984E-9B3E-27B321FE12F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="724101" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768450" cy="0"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="page82image64991616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90114DBD-64B8-8144-9280-341BB5202EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="768450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="page82image64518784">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB3472F-51CD-2240-848B-5BAAE7F2C63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="774700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787038</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="page82image64511296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEAD118-791C-4945-B310-41246482B02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="787038" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1088454</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="page82image64992192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634C2D5B-F022-5649-9E79-83880BC76061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="1913954" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="page82image64988544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B574E7F8-4F9B-2C46-8C2D-6DF30E392FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="812640" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="page82image64986432">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667A6A41-EE60-E240-A025-82C78FED0F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="761840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723738</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="page82image64978944">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B059E53-A5B7-254B-BA78-6FC66F0D6454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="723738" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768088</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="page82image64991616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92385708-1EC3-8541-8E11-8B81F45B428A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3251200"/>
+          <a:ext cx="768088" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -10051,830 +9908,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774700" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="page82image64518784">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A07C5DC-EBA9-264B-9BB8-D90576F1A927}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="774700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="787400" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="page82image64511296">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B20259-C1E5-C643-BFBE-40A5B3E97BF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="787400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1919111" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="page82image64992192">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D52695-A744-A446-9B93-DDDCBA4DE4EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="1919111" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="813002" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="page82image64988544">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E75837-5C92-8D46-89FC-ED030D002987}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="813002" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="762202" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="page82image64986432">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC87DD8-FE70-9142-B68D-E60182AB897F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="762202" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="724101" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="page82image64978944">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84429647-193F-984E-9B3E-27B321FE12F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="724101" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="768450" cy="0"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="page82image64991616">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90114DBD-64B8-8144-9280-341BB5202EB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="768450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="page82image64518784">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB3472F-51CD-2240-848B-5BAAE7F2C63A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="774700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>787038</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="page82image64511296">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEAD118-791C-4945-B310-41246482B02A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="787038" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1088454</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="page82image64992192">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634C2D5B-F022-5649-9E79-83880BC76061}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="1913954" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>812640</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="page82image64988544">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B574E7F8-4F9B-2C46-8C2D-6DF30E392FDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="812640" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>761840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="page82image64986432">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667A6A41-EE60-E240-A025-82C78FED0F8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="761840" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>723738</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="page82image64978944">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B059E53-A5B7-254B-BA78-6FC66F0D6454}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="723738" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>768088</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="page82image64991616">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92385708-1EC3-8541-8E11-8B81F45B428A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3251200"/>
-          <a:ext cx="768088" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11220,11 +10253,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209E79C-BC68-1F41-BD6C-369CE67D1D7D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="127.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="66" customHeight="1">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="34">
+      <c r="A2" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.transportenvironment.org/wp-content/uploads/2021/07/2021_04_TE_how_to_decarbonise_long_haul_trucking_in_Germany_final.pdf" xr:uid="{2D4CF365-AEC2-8644-8BF8-F21630B8EB41}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB57499-EDA8-6B47-B7B5-F87A4DEFF821}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A18" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11253,24 +10318,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>29.86</v>
@@ -11279,10 +10344,10 @@
         <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F2">
         <v>40</v>
@@ -11299,10 +10364,10 @@
         <v>2020</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -11319,10 +10384,10 @@
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -11339,10 +10404,10 @@
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -11359,10 +10424,10 @@
         <v>2020</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -11370,7 +10435,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>2.96</v>
@@ -11379,10 +10444,10 @@
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -11390,7 +10455,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>26.67</v>
@@ -11399,10 +10464,10 @@
         <v>2025</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -11419,10 +10484,10 @@
         <v>2025</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -11439,10 +10504,10 @@
         <v>2025</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -11459,10 +10524,10 @@
         <v>2025</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -11479,10 +10544,10 @@
         <v>2025</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F12">
         <v>40</v>
@@ -11490,7 +10555,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>2.64</v>
@@ -11499,10 +10564,10 @@
         <v>2025</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F13">
         <v>40</v>
@@ -11510,7 +10575,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>23.47</v>
@@ -11519,10 +10584,10 @@
         <v>2030</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F14">
         <v>40</v>
@@ -11539,10 +10604,10 @@
         <v>2030</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F15">
         <v>40</v>
@@ -11559,10 +10624,10 @@
         <v>2030</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F16">
         <v>40</v>
@@ -11579,10 +10644,10 @@
         <v>2030</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <v>40</v>
@@ -11599,10 +10664,10 @@
         <v>2030</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F18">
         <v>40</v>
@@ -11611,7 +10676,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B19">
         <v>2.33</v>
@@ -11620,10 +10685,10 @@
         <v>2030</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F19">
         <v>40</v>
@@ -11631,7 +10696,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>23.47</v>
@@ -11640,10 +10705,10 @@
         <v>2040</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>40</v>
@@ -11661,10 +10726,10 @@
         <v>2040</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F21">
         <v>40</v>
@@ -11681,10 +10746,10 @@
         <v>2040</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F22">
         <v>40</v>
@@ -11702,10 +10767,10 @@
         <v>2040</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="F23">
         <v>40</v>
@@ -11722,10 +10787,10 @@
         <v>2040</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F24">
         <v>40</v>
@@ -11734,7 +10799,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B25">
         <v>2.33</v>
@@ -11743,10 +10808,10 @@
         <v>2040</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F25">
         <v>40</v>
@@ -11754,7 +10819,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B26">
         <v>23.47</v>
@@ -11763,10 +10828,10 @@
         <v>2050</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F26">
         <v>40</v>
@@ -11783,10 +10848,10 @@
         <v>2050</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F27">
         <v>40</v>
@@ -11804,10 +10869,10 @@
         <v>2050</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="F28">
         <v>40</v>
@@ -11824,10 +10889,10 @@
         <v>2050</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>159</v>
+        <v>115</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="F29">
         <v>40</v>
@@ -11844,10 +10909,10 @@
         <v>2050</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F30">
         <v>40</v>
@@ -11855,7 +10920,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B31">
         <v>2.33</v>
@@ -11864,10 +10929,10 @@
         <v>2050</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F31">
         <v>40</v>
@@ -11907,339 +10972,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891BA6A7-696A-2D46-9A17-4F488B8F330E}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1.55</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1.39</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2030</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="8">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1.39</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2040</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1.39</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2050</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1.54</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2030</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1.25</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2040</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2050</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12">
-        <f>(B7*0.72+B2*0.28)</f>
-        <v>1.5876000000000001</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2020</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13">
-        <f t="shared" ref="B13:B16" si="0">(B8*0.72+B3*0.28)</f>
-        <v>1.4420000000000002</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1.2891999999999999</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2030</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>1.2891999999999999</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2040</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>1.2891999999999999</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2050</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="10">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7303BA-D3FD-4345-991C-4DA0FD69442E}">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
@@ -12254,26 +10991,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -12294,10 +11031,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -12314,7 +11051,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -12357,7 +11094,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -12417,7 +11154,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
@@ -12477,7 +11214,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>1</v>
@@ -12537,7 +11274,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>1</v>
@@ -12597,7 +11334,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>1</v>
@@ -12637,7 +11374,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>1</v>
@@ -12657,7 +11394,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>1</v>
@@ -12677,7 +11414,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>1</v>
@@ -12694,7 +11431,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -12714,10 +11451,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
@@ -12734,7 +11471,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
@@ -12777,7 +11514,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>1</v>
@@ -12837,7 +11574,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>1</v>
@@ -12897,7 +11634,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="b">
         <v>1</v>
@@ -12957,7 +11694,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="b">
         <v>1</v>
@@ -13017,7 +11754,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>1</v>
@@ -13057,7 +11794,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>1</v>
@@ -13077,7 +11814,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="b">
         <v>1</v>
@@ -13097,7 +11834,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2" t="b">
         <v>1</v>
@@ -13114,7 +11851,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -13134,10 +11871,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="b">
         <v>1</v>
@@ -13154,7 +11891,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2</v>
@@ -13197,7 +11934,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="b">
         <v>1</v>
@@ -13257,7 +11994,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="b">
         <v>1</v>
@@ -13317,7 +12054,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="b">
         <v>1</v>
@@ -13377,7 +12114,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="b">
         <v>1</v>
@@ -13437,7 +12174,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="b">
         <v>1</v>
@@ -13477,7 +12214,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="b">
         <v>1</v>
@@ -13497,7 +12234,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="b">
         <v>1</v>
@@ -13517,7 +12254,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="b">
         <v>1</v>
@@ -13534,7 +12271,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
@@ -13554,10 +12291,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2" t="b">
         <v>1</v>
@@ -13574,7 +12311,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
@@ -13617,7 +12354,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="b">
         <v>1</v>
@@ -13677,7 +12414,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="b">
         <v>1</v>
@@ -13737,7 +12474,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="b">
         <v>1</v>
@@ -13797,7 +12534,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="b">
         <v>1</v>
@@ -13857,7 +12594,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="b">
         <v>1</v>
@@ -13897,7 +12634,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="b">
         <v>1</v>
@@ -13917,7 +12654,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="b">
         <v>1</v>
@@ -13937,7 +12674,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C85" s="2" t="b">
         <v>1</v>
@@ -13954,7 +12691,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1</v>
@@ -13974,10 +12711,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="b">
         <v>1</v>
@@ -13994,7 +12731,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
@@ -14037,7 +12774,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="b">
         <v>1</v>
@@ -14097,7 +12834,7 @@
         <v>4</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="b">
         <v>1</v>
@@ -14157,7 +12894,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="b">
         <v>1</v>
@@ -14217,7 +12954,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2" t="b">
         <v>1</v>
@@ -14277,7 +13014,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="b">
         <v>1</v>
@@ -14317,7 +13054,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="b">
         <v>1</v>
@@ -14337,7 +13074,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="b">
         <v>1</v>
@@ -14357,7 +13094,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C106" s="2" t="b">
         <v>1</v>
@@ -14374,10 +13111,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="b">
         <v>1</v>
@@ -14394,10 +13131,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C108" s="2" t="b">
         <v>1</v>
@@ -14414,10 +13151,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="b">
         <v>1</v>
@@ -14434,10 +13171,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C110" s="2" t="b">
         <v>1</v>
@@ -14454,10 +13191,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C111" s="2" t="b">
         <v>1</v>
@@ -14477,7 +13214,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2" t="b">
         <v>1</v>
@@ -14497,7 +13234,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="b">
         <v>1</v>
@@ -14517,7 +13254,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="b">
         <v>1</v>
@@ -14537,7 +13274,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="b">
         <v>1</v>
@@ -14557,7 +13294,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C116" s="2" t="b">
         <v>1</v>
@@ -14577,7 +13314,7 @@
         <v>4</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C117" s="2" t="b">
         <v>1</v>
@@ -14597,7 +13334,7 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C118" s="2" t="b">
         <v>1</v>
@@ -14617,7 +13354,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C119" s="2" t="b">
         <v>1</v>
@@ -14637,7 +13374,7 @@
         <v>4</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C120" s="2" t="b">
         <v>1</v>
@@ -14657,7 +13394,7 @@
         <v>4</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="b">
         <v>1</v>
@@ -14677,7 +13414,7 @@
         <v>5</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C122" s="2" t="b">
         <v>1</v>
@@ -14697,7 +13434,7 @@
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="b">
         <v>1</v>
@@ -14717,7 +13454,7 @@
         <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2" t="b">
         <v>1</v>
@@ -14737,7 +13474,7 @@
         <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C125" s="2" t="b">
         <v>1</v>
@@ -14757,7 +13494,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="b">
         <v>1</v>
@@ -14774,10 +13511,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="b">
         <v>1</v>
@@ -14794,10 +13531,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C128" s="2" t="b">
         <v>1</v>
@@ -14814,10 +13551,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C129" s="2" t="b">
         <v>1</v>
@@ -14834,10 +13571,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2" t="b">
         <v>1</v>
@@ -14854,10 +13591,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2" t="b">
         <v>1</v>
@@ -14877,7 +13614,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="b">
         <v>1</v>
@@ -14897,7 +13634,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C133" s="2" t="b">
         <v>1</v>
@@ -14917,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C134" s="2" t="b">
         <v>1</v>
@@ -14937,7 +13674,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C135" s="2" t="b">
         <v>1</v>
@@ -14957,7 +13694,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C136" s="2" t="b">
         <v>1</v>
@@ -14977,7 +13714,7 @@
         <v>4</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C137" s="2" t="b">
         <v>1</v>
@@ -14997,7 +13734,7 @@
         <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C138" s="2" t="b">
         <v>1</v>
@@ -15017,7 +13754,7 @@
         <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C139" s="2" t="b">
         <v>1</v>
@@ -15037,7 +13774,7 @@
         <v>4</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C140" s="2" t="b">
         <v>1</v>
@@ -15057,7 +13794,7 @@
         <v>4</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C141" s="2" t="b">
         <v>1</v>
@@ -15077,7 +13814,7 @@
         <v>5</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C142" s="2" t="b">
         <v>1</v>
@@ -15097,7 +13834,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C143" s="2" t="b">
         <v>1</v>
@@ -15117,7 +13854,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C144" s="2" t="b">
         <v>1</v>
@@ -15137,7 +13874,7 @@
         <v>5</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C145" s="2" t="b">
         <v>1</v>
@@ -15157,7 +13894,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C146" s="2" t="b">
         <v>1</v>
@@ -15177,7 +13914,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="b">
         <v>0</v>
@@ -15197,7 +13934,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C148" s="2" t="b">
         <v>0</v>
@@ -15217,7 +13954,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C149" s="2" t="b">
         <v>0</v>
@@ -15237,7 +13974,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="b">
         <v>0</v>
@@ -15257,7 +13994,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C151" s="2" t="b">
         <v>0</v>
@@ -15277,7 +14014,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C152" s="2" t="b">
         <v>0</v>
@@ -15297,7 +14034,7 @@
         <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C153" s="2" t="b">
         <v>0</v>
@@ -15317,7 +14054,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C154" s="2" t="b">
         <v>0</v>
@@ -15337,7 +14074,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C155" s="2" t="b">
         <v>0</v>
@@ -15357,7 +14094,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C156" s="2" t="b">
         <v>0</v>
@@ -15377,7 +14114,7 @@
         <v>5</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C157" s="2" t="b">
         <v>0</v>
@@ -15397,7 +14134,7 @@
         <v>5</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="b">
         <v>0</v>
@@ -15417,7 +14154,7 @@
         <v>5</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C159" s="2" t="b">
         <v>0</v>
@@ -15437,7 +14174,7 @@
         <v>5</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="b">
         <v>0</v>
@@ -15457,7 +14194,7 @@
         <v>5</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C161" s="2" t="b">
         <v>0</v>
@@ -15474,10 +14211,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C162" s="2" t="b">
         <v>1</v>
@@ -15494,10 +14231,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C163" s="2" t="b">
         <v>1</v>
@@ -15514,10 +14251,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C164" s="2" t="b">
         <v>1</v>
@@ -15534,10 +14271,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C165" s="2" t="b">
         <v>1</v>
@@ -15554,10 +14291,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C166" s="2" t="b">
         <v>1</v>
@@ -15577,7 +14314,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C167" s="2" t="b">
         <v>1</v>
@@ -15597,7 +14334,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C168" s="2" t="b">
         <v>1</v>
@@ -15617,7 +14354,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C169" s="2" t="b">
         <v>1</v>
@@ -15637,7 +14374,7 @@
         <v>3</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C170" s="2" t="b">
         <v>1</v>
@@ -15657,7 +14394,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C171" s="2" t="b">
         <v>1</v>
@@ -15677,7 +14414,7 @@
         <v>4</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="b">
         <v>1</v>
@@ -15697,7 +14434,7 @@
         <v>4</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2" t="b">
         <v>1</v>
@@ -15717,7 +14454,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C174" s="2" t="b">
         <v>1</v>
@@ -15737,7 +14474,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C175" s="2" t="b">
         <v>1</v>
@@ -15757,7 +14494,7 @@
         <v>4</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C176" s="2" t="b">
         <v>1</v>
@@ -15777,7 +14514,7 @@
         <v>5</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C177" s="2" t="b">
         <v>1</v>
@@ -15797,7 +14534,7 @@
         <v>5</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C178" s="2" t="b">
         <v>1</v>
@@ -15817,7 +14554,7 @@
         <v>5</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C179" s="2" t="b">
         <v>1</v>
@@ -15837,7 +14574,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C180" s="2" t="b">
         <v>1</v>
@@ -15857,7 +14594,7 @@
         <v>5</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C181" s="2" t="b">
         <v>1</v>
@@ -15874,10 +14611,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C182" s="2" t="b">
         <v>1</v>
@@ -15894,10 +14631,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C183" s="2" t="b">
         <v>1</v>
@@ -15914,10 +14651,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C184" s="2" t="b">
         <v>1</v>
@@ -15934,10 +14671,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C185" s="2" t="b">
         <v>1</v>
@@ -15954,10 +14691,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C186" s="2" t="b">
         <v>1</v>
@@ -15983,1164 +14720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ADCF57-F81B-7244-ADFC-8F345755001E}">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2025</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2040</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2050</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10.07</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10.07</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10.07</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10.07</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10.07</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.23</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>13.36</v>
-      </c>
-      <c r="D10" s="2">
-        <v>11.94</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11.37</v>
-      </c>
-      <c r="F10" s="2">
-        <v>10.28</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9.25</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>26.07</v>
-      </c>
-      <c r="D11" s="2">
-        <v>24.65</v>
-      </c>
-      <c r="E11" s="2">
-        <v>24.08</v>
-      </c>
-      <c r="F11" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="G11" s="2">
-        <v>21.96</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2">
-        <v>16.7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>13.9</v>
-      </c>
-      <c r="E13" s="2">
-        <v>12.49</v>
-      </c>
-      <c r="F13" s="2">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2">
-        <v>7.91</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15.56</v>
-      </c>
-      <c r="E17" s="2">
-        <v>13.83</v>
-      </c>
-      <c r="F17" s="2">
-        <v>11.04</v>
-      </c>
-      <c r="G17" s="2">
-        <v>8.64</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="D18" s="2">
-        <v>22.29</v>
-      </c>
-      <c r="E18" s="2">
-        <v>20.37</v>
-      </c>
-      <c r="F18" s="2">
-        <v>17.21</v>
-      </c>
-      <c r="G18" s="2">
-        <v>14.48</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2">
-        <v>27.48</v>
-      </c>
-      <c r="D19" s="2">
-        <v>23.71</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20.86</v>
-      </c>
-      <c r="F19" s="2">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="G19" s="2">
-        <v>14.49</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2">
-        <v>28.48</v>
-      </c>
-      <c r="D22" s="2">
-        <v>24.71</v>
-      </c>
-      <c r="E22" s="2">
-        <v>21.87</v>
-      </c>
-      <c r="F22" s="2">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="G22" s="2">
-        <v>15.49</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
-        <v>41.9</v>
-      </c>
-      <c r="D23" s="2">
-        <v>37.86</v>
-      </c>
-      <c r="E23" s="2">
-        <v>34.770000000000003</v>
-      </c>
-      <c r="F23" s="2">
-        <v>30.85</v>
-      </c>
-      <c r="G23" s="2">
-        <v>27.52</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2">
-        <v>26.16</v>
-      </c>
-      <c r="D24" s="2">
-        <v>22.34</v>
-      </c>
-      <c r="E24" s="2">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="G24" s="2">
-        <v>13.74</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2">
-        <v>27.95</v>
-      </c>
-      <c r="D29" s="2">
-        <v>24.12</v>
-      </c>
-      <c r="E29" s="2">
-        <v>21.33</v>
-      </c>
-      <c r="F29" s="2">
-        <v>17.82</v>
-      </c>
-      <c r="G29" s="2">
-        <v>15.45</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2">
-        <v>38.03</v>
-      </c>
-      <c r="D30" s="2">
-        <v>34.83</v>
-      </c>
-      <c r="E30" s="2">
-        <v>32.67</v>
-      </c>
-      <c r="F30" s="2">
-        <v>28.7</v>
-      </c>
-      <c r="G30" s="2">
-        <v>25.92</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2025</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2030</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2040</v>
-      </c>
-      <c r="G34" s="2">
-        <v>2050</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10.18</v>
-      </c>
-      <c r="D35" s="2">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="E35" s="2">
-        <v>7.83</v>
-      </c>
-      <c r="F35" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2">
-        <v>6.73</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5.57</v>
-      </c>
-      <c r="D37" s="2">
-        <v>4.41</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2">
-        <v>20.58</v>
-      </c>
-      <c r="D40" s="2">
-        <v>18.13</v>
-      </c>
-      <c r="E40" s="2">
-        <v>15.91</v>
-      </c>
-      <c r="F40" s="2">
-        <v>13.33</v>
-      </c>
-      <c r="G40" s="2">
-        <v>11.23</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2">
-        <v>20.58</v>
-      </c>
-      <c r="D41" s="2">
-        <v>18.13</v>
-      </c>
-      <c r="E41" s="2">
-        <v>15.91</v>
-      </c>
-      <c r="F41" s="2">
-        <v>13.33</v>
-      </c>
-      <c r="G41" s="2">
-        <v>11.23</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="2">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D42" s="2">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E42" s="2">
-        <v>14.74</v>
-      </c>
-      <c r="F42" s="2">
-        <v>12.29</v>
-      </c>
-      <c r="G42" s="2">
-        <v>10.49</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="2">
-        <v>19.95</v>
-      </c>
-      <c r="D46" s="2">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="E46" s="2">
-        <v>15.78</v>
-      </c>
-      <c r="F46" s="2">
-        <v>13.33</v>
-      </c>
-      <c r="G46" s="2">
-        <v>11.53</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2">
-        <v>24.67</v>
-      </c>
-      <c r="D47" s="2">
-        <v>22.86</v>
-      </c>
-      <c r="E47" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="F47" s="2">
-        <v>18.05</v>
-      </c>
-      <c r="G47" s="2">
-        <v>16.25</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="2">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="D48" s="2">
-        <v>15.94</v>
-      </c>
-      <c r="E48" s="2">
-        <v>13.62</v>
-      </c>
-      <c r="F48" s="2">
-        <v>11.11</v>
-      </c>
-      <c r="G48" s="2">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="2">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="D53" s="2">
-        <v>17.93</v>
-      </c>
-      <c r="E53" s="2">
-        <v>15.61</v>
-      </c>
-      <c r="F53" s="2">
-        <v>13.07</v>
-      </c>
-      <c r="G53" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="2">
-        <v>21.22</v>
-      </c>
-      <c r="D54" s="2">
-        <v>20.22</v>
-      </c>
-      <c r="E54" s="2">
-        <v>18.79</v>
-      </c>
-      <c r="F54" s="2">
-        <v>16.25</v>
-      </c>
-      <c r="G54" s="2">
-        <v>14.98</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C8:G8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1345B68-C2C2-2E4A-8EEE-FE83C6860A0B}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17153,21 +14737,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2">
@@ -17177,12 +14761,12 @@
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3">
@@ -17192,12 +14776,12 @@
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4">
@@ -17207,12 +14791,12 @@
         <v>2030</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5">
@@ -17222,12 +14806,12 @@
         <v>2040</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
@@ -17237,7 +14821,7 @@
         <v>2050</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -17245,7 +14829,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2">
         <v>0.26069999999999999</v>
@@ -17254,7 +14838,7 @@
         <v>2020</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17262,7 +14846,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2">
         <v>0.2465</v>
@@ -17271,7 +14855,7 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -17279,7 +14863,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2">
         <v>0.24079999999999999</v>
@@ -17288,7 +14872,7 @@
         <v>2030</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -17296,7 +14880,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2">
         <v>0.22989999999999999</v>
@@ -17305,7 +14889,7 @@
         <v>2040</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -17313,7 +14897,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2">
         <v>0.21960000000000002</v>
@@ -17322,7 +14906,7 @@
         <v>2050</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -17330,7 +14914,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <v>0.26069999999999999</v>
@@ -17339,7 +14923,7 @@
         <v>2020</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -17347,7 +14931,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2">
         <v>0.2465</v>
@@ -17356,7 +14940,7 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -17364,7 +14948,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>0.24079999999999999</v>
@@ -17373,7 +14957,7 @@
         <v>2030</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -17381,7 +14965,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2">
         <v>0.22989999999999999</v>
@@ -17390,7 +14974,7 @@
         <v>2040</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -17398,7 +14982,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2">
         <v>0.21960000000000002</v>
@@ -17407,7 +14991,7 @@
         <v>2050</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -17415,16 +14999,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="12">
+        <v>126</v>
+      </c>
+      <c r="C17" s="7">
         <v>6.8593139999999995</v>
       </c>
       <c r="D17">
         <v>2020</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -17432,16 +15016,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="12">
+        <v>126</v>
+      </c>
+      <c r="C18" s="7">
         <v>6.0427289999999996</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -17449,16 +15033,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="12">
+        <v>126</v>
+      </c>
+      <c r="C19" s="7">
         <v>5.302802999999999</v>
       </c>
       <c r="D19">
         <v>2030</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -17466,16 +15050,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="12">
+        <v>126</v>
+      </c>
+      <c r="C20" s="7">
         <v>4.4428890000000001</v>
       </c>
       <c r="D20">
         <v>2040</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -17483,16 +15067,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="12">
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
         <v>3.7429590000000004</v>
       </c>
       <c r="D21">
         <v>2050</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -17581,19 +15165,19 @@
       <c r="B51" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F58F53E-65C3-434A-9381-D55C40522989}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A27" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17604,283 +15188,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="A1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="A2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="A3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="A5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="A6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="A7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="A8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="A9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="A10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="A11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>217</v>
+      <c r="A12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="A13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="12">
         <v>0.10879999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" s="21">
+      <c r="A14" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="15">
         <v>0.1152</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="A15" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="15">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="A16" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="12">
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="A17" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="15">
         <v>0.1055</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="14">
         <v>0.18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="21">
+      <c r="A19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="15">
         <v>7.8399999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="A20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="12">
         <v>6.8099999999999994E-2</v>
       </c>
       <c r="D20">
@@ -17888,10 +15472,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="17">
+      <c r="A21" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="12">
         <v>9.1499999999999998E-2</v>
       </c>
       <c r="D21">
@@ -17899,26 +15483,26 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="12">
         <v>0.12870000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="20">
+      <c r="A23" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="14">
         <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="17">
+      <c r="A24" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="12">
         <v>7.2099999999999997E-2</v>
       </c>
       <c r="D24">
@@ -17926,10 +15510,10 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="18">
+      <c r="A25" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="13">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D25">
@@ -17937,18 +15521,18 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="21">
+      <c r="A26" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="15">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="21">
+      <c r="A27" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="15">
         <v>0.1608</v>
       </c>
       <c r="D27">
@@ -17956,34 +15540,34 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="17">
+      <c r="A28" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="12">
         <v>0.1084</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="21">
+      <c r="A29" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="15">
         <v>9.5399999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="17">
+      <c r="A30" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="12">
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="21">
+      <c r="A31" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="15">
         <v>0.1328</v>
       </c>
       <c r="D31">
@@ -17991,26 +15575,26 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="17">
+      <c r="A32" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="12">
         <v>0.16159999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="17">
+      <c r="A33" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="12">
         <v>6.7900000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="18">
+      <c r="A34" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="13">
         <v>0.107</v>
       </c>
       <c r="D34">
@@ -18018,10 +15602,10 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="20">
+      <c r="A35" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="14">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="D35">
@@ -18029,18 +15613,18 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" s="21">
+      <c r="A36" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="15">
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="17">
+      <c r="A37" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="12">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="D37">
@@ -18048,34 +15632,34 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="17">
+      <c r="A38" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="12">
         <v>0.13550000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="21">
+      <c r="A39" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="15">
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="17">
+      <c r="A40" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="12">
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B41" s="21">
+      <c r="A41" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="15">
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="D41">
@@ -18083,18 +15667,18 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="21">
+      <c r="A42" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="15">
         <v>7.3300000000000004E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="17">
+      <c r="A43" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="12">
         <v>7.5899999999999995E-2</v>
       </c>
       <c r="D43">
@@ -18102,10 +15686,10 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="21">
+      <c r="A44" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="15">
         <v>8.2799999999999999E-2</v>
       </c>
       <c r="D44">
@@ -18113,10 +15697,10 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="17">
+      <c r="A45" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="12">
         <v>0.1159</v>
       </c>
       <c r="D45">
@@ -18124,34 +15708,34 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="21">
+      <c r="A46" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="15">
         <v>0.1014</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="21">
+      <c r="A47" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="15">
         <v>8.1299999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="21">
+      <c r="A48" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="15">
         <v>0.13170000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="17">
+      <c r="A49" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="12">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="D49">
@@ -18159,10 +15743,10 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="21">
+      <c r="A50" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="15">
         <v>0.1104</v>
       </c>
       <c r="D50">
@@ -18170,10 +15754,10 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="21">
+      <c r="A51" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="15">
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="D51">
@@ -18181,18 +15765,18 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="18">
+      <c r="A52" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="13">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" s="17">
+      <c r="A53" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="12">
         <v>7.0900000000000005E-2</v>
       </c>
       <c r="D53">
@@ -18200,10 +15784,10 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="20">
+      <c r="A54" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="14">
         <v>0.156</v>
       </c>
       <c r="D54">
@@ -18211,109 +15795,109 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18325,867 +15909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A029443-8E80-DE44-B0E0-9A50E775ACD5}">
-  <dimension ref="A2:H85"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:E84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="63.6640625" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
-      </c>
-      <c r="D3">
-        <v>2025</v>
-      </c>
-      <c r="E3">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1">
-        <v>464344</v>
-      </c>
-      <c r="D7" s="1">
-        <v>420000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>374186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10">
-        <v>0.83</v>
-      </c>
-      <c r="E10">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1">
-        <v>75000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>69545</v>
-      </c>
-      <c r="E12" s="1">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18">
-        <v>2020</v>
-      </c>
-      <c r="E18">
-        <v>2025</v>
-      </c>
-      <c r="F18">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="1">
-        <v>762500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36">
-        <v>2020</v>
-      </c>
-      <c r="E36">
-        <v>2025</v>
-      </c>
-      <c r="F36">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41">
-        <v>110</v>
-      </c>
-      <c r="E41">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49">
-        <v>2020</v>
-      </c>
-      <c r="G49">
-        <v>2025</v>
-      </c>
-      <c r="H49">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52">
-        <v>55</v>
-      </c>
-      <c r="F52">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59">
-        <v>2020</v>
-      </c>
-      <c r="D59">
-        <v>2025</v>
-      </c>
-      <c r="E59">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D60">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E60">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61">
-        <v>1.3</v>
-      </c>
-      <c r="D61">
-        <v>1.3</v>
-      </c>
-      <c r="E61">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62">
-        <v>8</v>
-      </c>
-      <c r="E62">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63">
-        <f>SUM(C60:C61)</f>
-        <v>18.7</v>
-      </c>
-      <c r="D63">
-        <f>SUM(D60:D61)</f>
-        <v>18.7</v>
-      </c>
-      <c r="E63">
-        <f>SUM(E60:E61)</f>
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65">
-        <v>0.2</v>
-      </c>
-      <c r="E65">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="B66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <f>SUM(D64:D65)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E67">
-        <f>SUM(E64:E65)</f>
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="B69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69">
-        <v>0.2</v>
-      </c>
-      <c r="D69">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="B70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71">
-        <v>0.2</v>
-      </c>
-      <c r="D71">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="B73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73">
-        <v>0.2</v>
-      </c>
-      <c r="D73">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="B74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75">
-        <v>0.2</v>
-      </c>
-      <c r="D75">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D76">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E76">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="B77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77">
-        <v>1.3</v>
-      </c>
-      <c r="D77">
-        <v>1.3</v>
-      </c>
-      <c r="E77">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="B78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78">
-        <v>8</v>
-      </c>
-      <c r="D78">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <v>18.7</v>
-      </c>
-      <c r="D79">
-        <v>26.7</v>
-      </c>
-      <c r="E79">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="D80">
-        <v>12.18</v>
-      </c>
-      <c r="E80">
-        <v>12.18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="B81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81">
-        <v>1.3</v>
-      </c>
-      <c r="D81">
-        <v>1.3</v>
-      </c>
-      <c r="E81">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="B82" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
-      <c r="E82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83">
-        <v>18.7</v>
-      </c>
-      <c r="D83">
-        <v>21.48</v>
-      </c>
-      <c r="E83">
-        <v>21.48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="B84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123BEABA-04A9-AC4F-AFD3-1598945FBDEC}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -19203,15 +15927,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>0.187</v>
@@ -19222,7 +15946,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0.187</v>
@@ -19233,7 +15957,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>0.187</v>
@@ -19244,7 +15968,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0.187</v>
@@ -19255,7 +15979,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>0.187</v>
@@ -19430,6 +16154,866 @@
       </c>
       <c r="C21">
         <v>2050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A029443-8E80-DE44-B0E0-9A50E775ACD5}">
+  <dimension ref="A2:H85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>2025</v>
+      </c>
+      <c r="E3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>464344</v>
+      </c>
+      <c r="D7" s="1">
+        <v>420000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>374186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0.83</v>
+      </c>
+      <c r="E10">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>69545</v>
+      </c>
+      <c r="E12" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>2025</v>
+      </c>
+      <c r="F18">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1">
+        <v>762500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>2025</v>
+      </c>
+      <c r="F36">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>110</v>
+      </c>
+      <c r="E41">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="G49">
+        <v>2025</v>
+      </c>
+      <c r="H49">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59">
+        <v>2020</v>
+      </c>
+      <c r="D59">
+        <v>2025</v>
+      </c>
+      <c r="E59">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D60">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E60">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61">
+        <v>1.3</v>
+      </c>
+      <c r="D61">
+        <v>1.3</v>
+      </c>
+      <c r="E61">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <f>SUM(C60:C61)</f>
+        <v>18.7</v>
+      </c>
+      <c r="D63">
+        <f>SUM(D60:D61)</f>
+        <v>18.7</v>
+      </c>
+      <c r="E63">
+        <f>SUM(E60:E61)</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <f>SUM(D64:D65)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <f>SUM(E64:E65)</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69">
+        <v>0.2</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>0.2</v>
+      </c>
+      <c r="D71">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>0.2</v>
+      </c>
+      <c r="D75">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D76">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E76">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77">
+        <v>1.3</v>
+      </c>
+      <c r="D77">
+        <v>1.3</v>
+      </c>
+      <c r="E77">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>18.7</v>
+      </c>
+      <c r="D79">
+        <v>26.7</v>
+      </c>
+      <c r="E79">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D80">
+        <v>12.18</v>
+      </c>
+      <c r="E80">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81">
+        <v>1.3</v>
+      </c>
+      <c r="D81">
+        <v>1.3</v>
+      </c>
+      <c r="E81">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>18.7</v>
+      </c>
+      <c r="D83">
+        <v>21.48</v>
+      </c>
+      <c r="E83">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
